--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,59 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>WriteLogToFileError</t>
+  </si>
+  <si>
+    <t>Failed with writing a log to the file. Check folder path and available space.</t>
+  </si>
+  <si>
+    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>ProcessNameInvalid</t>
+  </si>
+  <si>
+    <t>Invalid Process Name.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 유효하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ProcessNameNotSet</t>
+  </si>
+  <si>
+    <t>Process Name Not Set.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 설정되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>CantCreateCaptureDir</t>
+  </si>
+  <si>
+    <t>Cannot Create Captured Image Directory.</t>
+  </si>
+  <si>
+    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>WriteCsvFailed</t>
+  </si>
+  <si>
+    <t>Failed with writing values to the csv file.</t>
+  </si>
+  <si>
+    <t>CSV 파일 쓰기에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>ScreenShotCaptureFailure</t>
+  </si>
+  <si>
+    <t>Failed Capturing Screenshot.</t>
+  </si>
+  <si>
+    <t>스크린샷 캡쳐에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>NoWindowToBeCaptured</t>
+  </si>
+  <si>
+    <t>No Window is capturable.</t>
+  </si>
+  <si>
+    <t>캡쳐 가능 영역이 없습니다.</t>
+  </si>
+  <si>
+    <t>LogPathInvalid</t>
+  </si>
+  <si>
+    <t>Invalid log path! Log files could not be written.</t>
+  </si>
+  <si>
+    <t>로그 경로가 유효하지 않습니다.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF1D1C1D"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +159,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,179 +455,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ko-KR</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WriteLogToFileError</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing a log to the file. Check folder path and available space.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameInvalid</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid Process Name.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameNotSet</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Process Name Not Set.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 설정되지 않았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CantCreateCaptureDir</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Cannot Create Captured Image Directory.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>WriteCsvFailed</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing values to the csv file.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CSV 파일 쓰기에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ScreenShotCaptureFailure</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Failed Capturing Screenshot.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>스크린샷 캡쳐에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NoWindowToBeCaptured</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>No Window is capturable.</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 가능 영역이 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LogPathInvalid</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid log path! Log files could not be written.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>로그 경로가 유효하지 않습니다.</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,59 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>WriteLogToFileError</t>
+  </si>
+  <si>
+    <t>Failed with writing a log to the file. Check folder path and available space.</t>
+  </si>
+  <si>
+    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>ProcessNameInvalid</t>
+  </si>
+  <si>
+    <t>Invalid Process Name.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 유효하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ProcessNameNotSet</t>
+  </si>
+  <si>
+    <t>Process Name Not Set.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 설정되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>CantCreateCaptureDir</t>
+  </si>
+  <si>
+    <t>Cannot Create Captured Image Directory.</t>
+  </si>
+  <si>
+    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>WriteCsvFailed</t>
+  </si>
+  <si>
+    <t>Failed with writing values to the csv file.</t>
+  </si>
+  <si>
+    <t>CSV 파일 쓰기에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>ScreenShotCaptureFailure</t>
+  </si>
+  <si>
+    <t>Failed Capturing Screenshot.</t>
+  </si>
+  <si>
+    <t>스크린샷 캡쳐에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>NoWindowToBeCaptured</t>
+  </si>
+  <si>
+    <t>No Window is capturable.</t>
+  </si>
+  <si>
+    <t>캡쳐 가능 영역이 없습니다.</t>
+  </si>
+  <si>
+    <t>LogPathInvalid</t>
+  </si>
+  <si>
+    <t>Invalid log path! Log files could not be written.</t>
+  </si>
+  <si>
+    <t>로그 경로가 유효하지 않습니다.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF1D1C1D"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +159,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,179 +455,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ko-KR</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WriteLogToFileError</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing a log to the file. Check folder path and available space.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameInvalid</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid Process Name.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameNotSet</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Process Name Not Set.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 설정되지 않았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CantCreateCaptureDir</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Cannot Create Captured Image Directory.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>WriteCsvFailed</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing values to the csv file.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CSV 파일 쓰기에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ScreenShotCaptureFailure</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Failed Capturing Screenshot.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>스크린샷 캡쳐에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NoWindowToBeCaptured</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>No Window is capturable.</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 가능 영역이 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LogPathInvalid</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid log path! Log files could not be written.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>로그 경로가 유효하지 않습니다.</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PlcConnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ReadyVehicleError</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>InvalidPath</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LoadingConfigError</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WaitingForCameraConnection</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>InvalidLicense</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PlcConnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PlcDisconnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ProgramStart</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CantReadRobotCurrentPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SavingRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GapAddFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ScanningPointDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>VehicleScanPointError</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PlcDisconnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CameraConnectionNeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ReadingGapCheckRefPosesFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VehicleCalculationFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>InfoSettingsFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WantSaveRefImg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VehicleOffsetValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CalculatedInstallPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ScanningPointFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ChangeModePasswordFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WantSaveRefPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotError</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CameraInfoNotSet</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CameraConnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CalculatedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GapTeachCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SavingRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GapAddCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PointScanError</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>WarningTitle</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ModifiedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>VehicleCalculationDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MainFormClosingCheck</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GapCheckFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GapTeachFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CameraConnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseDone</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -596,329 +596,329 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>PlcConnectDone</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>ReadyVehicleError</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>InvalidPath</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>LoadingConfigError</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>WaitingForCameraConnection</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>InvalidLicense</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>GapManageCompleted</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>GapManageFailed</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>PlcConnectFailed</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectFailed</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>ProgramStart</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>CantReadRobotCurrentPose</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>GapAddFailed</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>ScanningPointDone</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>VehicleScanPointError</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectDone</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionNeeded</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>ReadingGapCheckRefPosesFailed</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationFailed</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>InfoSettingsFailed</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionDone</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>WantSaveRefImg</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>VehicleOffsetValue</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>CalculatedInstallPose</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>ScanningPointFailed</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>ChangeModePasswordFailed</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>WantSaveRefPose</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotError</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>CameraInfoNotSet</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>CalculatedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>GapTeachCompleted</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="0" t="inlineStr">
         <is>
           <t>GapAddCompleted</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="0" t="inlineStr">
         <is>
           <t>PointScanError</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="0" t="inlineStr">
         <is>
           <t>WarningTitle</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="0" t="inlineStr">
         <is>
           <t>ModifiedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotDone</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationDone</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="0" t="inlineStr">
         <is>
           <t>MainFormClosingCheck</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="0" t="inlineStr">
         <is>
           <t>GapCheckFailed</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="0" t="inlineStr">
         <is>
           <t>GapTeachFailed</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionDone</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseDone</t>
         </is>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VehicleCalculationFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PlcDisconnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GapAddCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CameraConnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ScanningPointFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GapTeachFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CantReadRobotCurrentPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PlcDisconnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CameraConnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CameraConnectionNeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PlcConnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GapCheckFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PlcConnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LoadingConfigError</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ReadingGapCheckRefPosesFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>VehicleOffsetValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GapTeachCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ModifiedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotError</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CalculatedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>VehicleScanPointError</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ScanningPointDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CameraInfoNotSet</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GapAddFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>InfoSettingsFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>VehicleCalculationDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WaitingForCameraConnection</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ProgramStart</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CalculatedInstallPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SavingRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SavingRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ReadyVehicleError</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -596,273 +596,273 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationFailed</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectDone</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>GapAddCompleted</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionDone</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>ScanningPointFailed</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionDone</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>GapTeachFailed</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>CantReadRobotCurrentPose</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectFailed</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionNeeded</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>PlcConnectFailed</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>GapCheckFailed</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>PlcConnectDone</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>LoadingConfigError</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>ReadingGapCheckRefPosesFailed</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>VehicleOffsetValue</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>GapTeachCompleted</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>ModifiedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotError</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>CalculatedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>VehicleScanPointError</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>GapManageCompleted</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>ScanningPointDone</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>CameraInfoNotSet</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>GapAddFailed</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>InfoSettingsFailed</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationDone</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotDone</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>WaitingForCameraConnection</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>ProgramStart</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>CalculatedInstallPose</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="0" t="inlineStr">
         <is>
           <t>ReadyVehicleError</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="0" t="inlineStr">
         <is>
           <t>GapManageFailed</t>
         </is>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
@@ -868,6 +868,13 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>레젝스가바뀌나</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SavingRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PlcConnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WaitingForCameraConnection</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CameraInfoNotSet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PlcDisconnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CalculatedInstallPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ProgramStart</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ReadyVehicleError</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VehicleCalculationFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CameraConnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GapAddFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GapCheckFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotError</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ScanningPointFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GapTeachFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LoadingConfigError</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CalculatedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CameraConnectionNeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PlcDisconnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ScanningPointDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>VehicleOffsetValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GapTeachCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VehicleScanPointError</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>InfoSettingsFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PlcConnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SavingRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ReadingGapCheckRefPosesFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ModifiedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CantReadRobotCurrentPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CameraConnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GapAddCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>VehicleCalculationDone</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -596,273 +596,273 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>PlcConnectDone</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>WaitingForCameraConnection</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>CameraInfoNotSet</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectDone</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>CalculatedInstallPose</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>ProgramStart</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>ReadyVehicleError</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationFailed</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>GapAddFailed</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>GapCheckFailed</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotError</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>ScanningPointFailed</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>GapTeachFailed</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>LoadingConfigError</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>CalculatedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>GapManageFailed</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionDone</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionNeeded</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>PlcDisconnectFailed</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>ScanningPointDone</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>VehicleOffsetValue</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>GapManageCompleted</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>GapTeachCompleted</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>VehicleScanPointError</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotDone</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>InfoSettingsFailed</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>PlcConnectFailed</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>SavingRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>ReadingGapCheckRefPosesFailed</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>ModifiedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>CameraDisconnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>CantReadRobotCurrentPose</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="0" t="inlineStr">
         <is>
           <t>CameraConnectionDone</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="0" t="inlineStr">
         <is>
           <t>GapAddCompleted</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="0" t="inlineStr">
         <is>
           <t>VehicleCalculationDone</t>
         </is>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -596,273 +596,273 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>SavingRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>PlcConnectDone</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>WaitingForCameraConnection</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CameraInfoNotSet</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>PlcDisconnectDone</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>CalculatedInstallPose</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>ProgramStart</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>ReadyVehicleError</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>VehicleCalculationFailed</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>CameraConnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>GapAddFailed</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>GapCheckFailed</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotError</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>ScanningPointFailed</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>GapTeachFailed</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>LoadingConfigError</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>CalculatedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>GapManageFailed</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CameraDisconnectionDone</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CameraConnectionNeeded</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>PlcDisconnectFailed</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>LoadingVehicleRefPoseDone</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>ScanningPointDone</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>VehicleOffsetValue</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>GapManageCompleted</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>GapTeachCompleted</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>VehicleScanPointError</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>UpdateInstallPosesToRobotDone</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>InfoSettingsFailed</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>PlcConnectFailed</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>SavingRefPoseFailed</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>ReadingGapCheckRefPosesFailed</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>ModifiedVehicleShiftValue</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>CameraDisconnectionFailed</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>CantReadRobotCurrentPose</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>CameraConnectionDone</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>GapAddCompleted</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>VehicleCalculationDone</t>
         </is>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+      <selection activeCell="B10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,59 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>WriteLogToFileError</t>
+  </si>
+  <si>
+    <t>Failed with writing a log to the file. Check folder path and available space.</t>
+  </si>
+  <si>
+    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>ProcessNameInvalid</t>
+  </si>
+  <si>
+    <t>Invalid Process Name.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 유효하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ProcessNameNotSet</t>
+  </si>
+  <si>
+    <t>Process Name Not Set.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 설정되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>CantCreateCaptureDir</t>
+  </si>
+  <si>
+    <t>Cannot Create Captured Image Directory.</t>
+  </si>
+  <si>
+    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>WriteCsvFailed</t>
+  </si>
+  <si>
+    <t>Failed with writing values to the csv file.</t>
+  </si>
+  <si>
+    <t>CSV 파일 쓰기에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>ScreenShotCaptureFailure</t>
+  </si>
+  <si>
+    <t>Failed Capturing Screenshot.</t>
+  </si>
+  <si>
+    <t>스크린샷 캡쳐에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>NoWindowToBeCaptured</t>
+  </si>
+  <si>
+    <t>No Window is capturable.</t>
+  </si>
+  <si>
+    <t>캡쳐 가능 영역이 없습니다.</t>
+  </si>
+  <si>
+    <t>LogPathInvalid</t>
+  </si>
+  <si>
+    <t>Invalid log path! Log files could not be written.</t>
+  </si>
+  <si>
+    <t>로그 경로가 유효하지 않습니다.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF1D1C1D"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +159,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,193 +455,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ko-KR</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WriteLogToFileError</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing a log to the file. Check folder path and available space.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameInvalid</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid Process Name.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameNotSet</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Process Name Not Set.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 설정되지 않았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CantCreateCaptureDir</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Cannot Create Captured Image Directory.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>WriteCsvFailed</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing values to the csv file.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CSV 파일 쓰기에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ScreenShotCaptureFailure</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Failed Capturing Screenshot.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>스크린샷 캡쳐에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NoWindowToBeCaptured</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>No Window is capturable.</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 가능 영역이 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LogPathInvalid</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid log path! Log files could not be written.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>로그 경로가 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GapManageCompleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GapManageFailed</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니다.</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GapAddFailed</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
@@ -596,23 +596,275 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>GapManageFailed</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>GapManageCompleted</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>GapAddFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SavingRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ProgramStart</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>InfoSettingsFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LoadingConfigError</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CantReadRobotCurrentPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ScanningPointDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VehicleCalculationDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ScanningPointFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GapCheckFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>VehicleCalculationFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotError</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PlcConnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GapTeachCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ReadingGapCheckRefPosesFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>WaitingForCameraConnection</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CameraConnectionNeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VehicleScanPointError</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PlcDisconnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CameraConnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CameraConnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CalculatedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>VehicleOffsetValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SavingRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PlcConnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PlcDisconnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CalculatedInstallPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ModifiedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CameraInfoNotSet</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GapAddCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ReadyVehicleError</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GapTeachFailed</t>
         </is>
       </c>
     </row>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,59 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>WriteLogToFileError</t>
+  </si>
+  <si>
+    <t>Failed with writing a log to the file. Check folder path and available space.</t>
+  </si>
+  <si>
+    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>ProcessNameInvalid</t>
+  </si>
+  <si>
+    <t>Invalid Process Name.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 유효하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ProcessNameNotSet</t>
+  </si>
+  <si>
+    <t>Process Name Not Set.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 설정되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>CantCreateCaptureDir</t>
+  </si>
+  <si>
+    <t>Cannot Create Captured Image Directory.</t>
+  </si>
+  <si>
+    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>WriteCsvFailed</t>
+  </si>
+  <si>
+    <t>Failed with writing values to the csv file.</t>
+  </si>
+  <si>
+    <t>CSV 파일 쓰기에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>ScreenShotCaptureFailure</t>
+  </si>
+  <si>
+    <t>Failed Capturing Screenshot.</t>
+  </si>
+  <si>
+    <t>스크린샷 캡쳐에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>NoWindowToBeCaptured</t>
+  </si>
+  <si>
+    <t>No Window is capturable.</t>
+  </si>
+  <si>
+    <t>캡쳐 가능 영역이 없습니다.</t>
+  </si>
+  <si>
+    <t>LogPathInvalid</t>
+  </si>
+  <si>
+    <t>Invalid log path! Log files could not be written.</t>
+  </si>
+  <si>
+    <t>로그 경로가 유효하지 않습니다.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF1D1C1D"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +159,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,200 +455,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ko-KR</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WriteLogToFileError</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing a log to the file. Check folder path and available space.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameInvalid</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid Process Name.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameNotSet</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Process Name Not Set.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 설정되지 않았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CantCreateCaptureDir</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Cannot Create Captured Image Directory.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>WriteCsvFailed</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing values to the csv file.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CSV 파일 쓰기에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ScreenShotCaptureFailure</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Failed Capturing Screenshot.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>스크린샷 캡쳐에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NoWindowToBeCaptured</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>No Window is capturable.</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 가능 영역이 없습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LogPathInvalid</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid log path! Log files could not be written.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>로그 경로가 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GapManageFailed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GapManageCompleted</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GapAddFailed</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -99,14 +99,71 @@
     <t>Invalid log path! Log files could not be written.</t>
   </si>
   <si>
-    <t>로그 경로가 유효하지 않습니다.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유효합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +196,13 @@
       <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,7 +523,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,6 +635,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,149 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ko-KR</t>
-  </si>
-  <si>
-    <t>WriteLogToFileError</t>
-  </si>
-  <si>
-    <t>Failed with writing a log to the file. Check folder path and available space.</t>
-  </si>
-  <si>
-    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-  </si>
-  <si>
-    <t>ProcessNameInvalid</t>
-  </si>
-  <si>
-    <t>Invalid Process Name.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 유효하지 않습니다.</t>
-  </si>
-  <si>
-    <t>ProcessNameNotSet</t>
-  </si>
-  <si>
-    <t>Process Name Not Set.</t>
-  </si>
-  <si>
-    <t>프로세스 이름이 설정되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>CantCreateCaptureDir</t>
-  </si>
-  <si>
-    <t>Cannot Create Captured Image Directory.</t>
-  </si>
-  <si>
-    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>WriteCsvFailed</t>
-  </si>
-  <si>
-    <t>Failed with writing values to the csv file.</t>
-  </si>
-  <si>
-    <t>CSV 파일 쓰기에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>ScreenShotCaptureFailure</t>
-  </si>
-  <si>
-    <t>Failed Capturing Screenshot.</t>
-  </si>
-  <si>
-    <t>스크린샷 캡쳐에 실패하였습니다.</t>
-  </si>
-  <si>
-    <t>NoWindowToBeCaptured</t>
-  </si>
-  <si>
-    <t>No Window is capturable.</t>
-  </si>
-  <si>
-    <t>캡쳐 가능 영역이 없습니까?</t>
-  </si>
-  <si>
-    <t>LogPathInvalid</t>
-  </si>
-  <si>
-    <t>Invalid log path! Log files could not be written.</t>
-  </si>
-  <si>
-    <t>로그 경로가 유효하지 않습니까?</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF1D1C1D"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,37 +69,96 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,122 +424,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ko-KR</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WriteLogToFileError</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing a log to the file. Check folder path and available space.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameInvalid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Invalid Process Name.</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 유효하지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ProcessNameNotSet</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Process Name Not Set.</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>프로세스 이름이 설정되지 않았습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CantCreateCaptureDir</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Cannot Create Captured Image Directory.</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>WriteCsvFailed</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Failed with writing values to the csv file.</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>CSV 파일 쓰기에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ScreenShotCaptureFailure</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Failed Capturing Screenshot.</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>스크린샷 캡쳐에 실패하였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NoWindowToBeCaptured</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>No Window is capturable.</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>캡쳐 가능 영역이 없습니까?</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LogPathInvalid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Invalid log path! Log files could not be written.</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>로그 경로가 유효하지 않습니까?</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TestingGithubAction</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -1,59 +1,308 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\c_cpp_csharp\PythonCSharpener\localization_tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="30330" windowWidth="17490" xWindow="30615" yWindow="-105"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="17490" windowHeight="30330"/>
   </bookViews>
   <sheets>
-    <sheet name="Msgs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Msgs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ko-KR</t>
+  </si>
+  <si>
+    <t>WriteLogToFileError</t>
+  </si>
+  <si>
+    <t>Failed with writing a log to the file. Check folder path and available space.</t>
+  </si>
+  <si>
+    <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
+  </si>
+  <si>
+    <t>ProcessNameInvalid</t>
+  </si>
+  <si>
+    <t>Invalid Process Name.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 유효하지 않습니다.</t>
+  </si>
+  <si>
+    <t>ProcessNameNotSet</t>
+  </si>
+  <si>
+    <t>Process Name Not Set.</t>
+  </si>
+  <si>
+    <t>프로세스 이름이 설정되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>CantCreateCaptureDir</t>
+  </si>
+  <si>
+    <t>Cannot Create Captured Image Directory.</t>
+  </si>
+  <si>
+    <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>WriteCsvFailed</t>
+  </si>
+  <si>
+    <t>Failed with writing values to the csv file.</t>
+  </si>
+  <si>
+    <t>CSV 파일 쓰기에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>ScreenShotCaptureFailure</t>
+  </si>
+  <si>
+    <t>Failed Capturing Screenshot.</t>
+  </si>
+  <si>
+    <t>스크린샷 캡쳐에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>NoWindowToBeCaptured</t>
+  </si>
+  <si>
+    <t>No Window is capturable.</t>
+  </si>
+  <si>
+    <t>LogPathInvalid</t>
+  </si>
+  <si>
+    <t>Invalid log path! Log files could not be written.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유효하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캡쳐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영역이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF1D1C1D"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,96 +318,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,186 +614,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="15.875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="3" width="57"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="51.25"/>
+    <col min="1" max="1" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ko-KR</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WriteLogToFileError</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing a log to the file. Check folder path and available space.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>로그 파일 쓰기에 실패. 폴더 경로와 남은 용량을 확인해주세요.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="3" s="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameInvalid</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Invalid Process Name.</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 유효하지 않습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ProcessNameNotSet</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Process Name Not Set.</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>프로세스 이름이 설정되지 않았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>CantCreateCaptureDir</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Cannot Create Captured Image Directory.</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 이미지 경로 생성에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>WriteCsvFailed</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Failed with writing values to the csv file.</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>CSV 파일 쓰기에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ScreenShotCaptureFailure</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Failed Capturing Screenshot.</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>스크린샷 캡쳐에 실패하였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>NoWindowToBeCaptured</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>No Window is capturable.</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>캡쳐 가능 영역이 없습니까?</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>LogPathInvalid</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Invalid log path! Log files could not be written.</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>로그 경로가 유효하지 않습니까?</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>TestingGithubAction</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -104,7 +104,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>로그</t>
+      <t>캡쳐</t>
     </r>
     <r>
       <rPr>
@@ -123,7 +123,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경로가</t>
+      <t>가능</t>
     </r>
     <r>
       <rPr>
@@ -142,7 +142,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>유효하지</t>
+      <t>영역이</t>
     </r>
     <r>
       <rPr>
@@ -161,7 +161,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>않습니다</t>
+      <t>없습니다</t>
     </r>
     <r>
       <rPr>
@@ -183,7 +183,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>캡쳐</t>
+      <t>로그</t>
     </r>
     <r>
       <rPr>
@@ -202,7 +202,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>가능</t>
+      <t>경로가</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +221,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>영역이</t>
+      <t>유효하지</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +240,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>없습니다</t>
+      <t>않습니까</t>
     </r>
     <r>
       <rPr>
@@ -249,7 +249,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
+      <t>?</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -104,6 +104,114 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유효하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번역값이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달라지면</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>캡쳐</t>
     </r>
     <r>
@@ -170,77 +278,93 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경로가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유효하지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않습니까</t>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달라진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>올리면</t>
     </r>
     <r>
       <rPr>
@@ -618,7 +742,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
+++ b/PythonCSharpener/localization_tool/CoPick.Logging.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -603,9 +603,282 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>GithubActionTestToSee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CameraConnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ReadyVehicleError</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GapTeachFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>InfoSettingsFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GapManageCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VehicleOffsetValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SavingRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PlcDisconnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CameraDisconnectionDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GapTeachCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PlcConnectFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LoadingVehicleRefPoseFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CantReadRobotCurrentPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ModifiedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PlcConnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>WaitingForCameraConnection</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GapCheckFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CalculatedVehicleShiftValue</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ProgramStart</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UpdateInstallPosesToRobotError</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GapAddFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GapAddCompleted</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CalculatedInstallPose</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SavingRefPoseDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ScanningPointDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ReadingGapCheckRefPosesFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CameraInfoNotSet</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>VehicleCalculationFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>VehicleCalculationDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GapManageFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CameraConnectionFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VehicleScanPointError</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CameraConnectionNeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PlcDisconnectDone</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ScanningPointFailed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LoadingConfigError</t>
         </is>
       </c>
     </row>
